--- a/Documentação/CronogramaProjetoGrupo5.xlsx
+++ b/Documentação/CronogramaProjetoGrupo5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t xml:space="preserve">Atividade</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">Logo</t>
   </si>
   <si>
-    <t xml:space="preserve">Em Desenv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Animação</t>
   </si>
   <si>
@@ -89,15 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">CADASTRO DE EVENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À Fazer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA DE PERFIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista de Eventos</t>
   </si>
   <si>
     <t xml:space="preserve">TELA DE EVENTOS</t>
@@ -147,7 +135,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,7 +145,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF5353"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -182,18 +170,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5353"/>
-        <bgColor rgb="FFFF4000"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,15 +254,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +294,7 @@
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF5353"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -337,7 +305,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -371,18 +339,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.85"/>
@@ -519,16 +487,16 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="8" t="s">
-        <v>10</v>
+      <c r="O5" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>44028</v>
@@ -552,7 +520,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -574,9 +542,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>44028</v>
       </c>
       <c r="D8" s="5" t="n">
@@ -598,16 +566,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>44032</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -617,7 +585,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="1"/>
       <c r="O9" s="7" t="s">
         <v>8</v>
@@ -625,10 +593,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>44028</v>
@@ -652,7 +620,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -674,9 +642,9 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>44028</v>
       </c>
       <c r="D12" s="5" t="n">
@@ -698,15 +666,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>44032</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="8" t="n">
         <v>44034</v>
       </c>
       <c r="E13" s="1"/>
@@ -725,12 +693,12 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="8" t="n">
         <v>44028</v>
       </c>
       <c r="D14" s="5" t="n">
@@ -752,10 +720,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>44032</v>
@@ -779,7 +747,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -801,9 +769,9 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <v>44028</v>
       </c>
       <c r="D17" s="5" t="n">
@@ -825,10 +793,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>44034</v>
@@ -852,13 +820,17 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="5" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>44035</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -867,18 +839,18 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="10" t="s">
-        <v>23</v>
+      <c r="O19" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>44034</v>
@@ -902,13 +874,12 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -924,12 +895,14 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="n">
         <v>44028</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="5" t="n">
+        <v>44029</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -940,19 +913,23 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="8" t="s">
-        <v>10</v>
+      <c r="O22" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
+      <c r="A23" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>44035</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -960,22 +937,26 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="10" t="s">
-        <v>23</v>
+      <c r="O23" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>44035</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -984,44 +965,49 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="10" t="s">
-        <v>23</v>
+      <c r="O24" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>44035</v>
+      </c>
       <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>44028</v>
-      </c>
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1029,42 +1015,48 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>17</v>
+      <c r="A27" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>44035</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="8" t="s">
-        <v>10</v>
+      <c r="O27" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>44035</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1072,23 +1064,20 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="10" t="s">
-        <v>23</v>
+      <c r="O28" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1098,125 +1087,39 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>44033</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>44034</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>44033</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="O30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
